--- a/2019GSTWk3/DistanceTrials.xlsx
+++ b/2019GSTWk3/DistanceTrials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSTstudent2017\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019GSTWk3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Run</t>
   </si>
@@ -32,13 +32,10 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Distance (inches)</t>
+    <t>&lt;-- Units used here matter!</t>
   </si>
   <si>
-    <t>In/Pwr</t>
-  </si>
-  <si>
-    <t>In/Pwr (Corrected)</t>
+    <t>Distance (units?)</t>
   </si>
 </sst>
 </file>
@@ -46,7 +43,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -79,7 +76,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,7 +166,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.549175778033186E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.90825005517828306"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -182,7 +189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distance (inches)</c:v>
+                  <c:v>Distance (units?)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -379,22 +386,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,16 +1225,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94416</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>373630</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1442,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,13 +1539,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1477,16 +1553,9 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>SLOPE(C:C,B:B)</f>
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="1">
-        <f>SLOPE(C7:C31,B7:B31)</f>
-        <v>0.02</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,6 +1565,9 @@
       <c r="B3">
         <v>50</v>
       </c>
+      <c r="C3">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1504,6 +1576,9 @@
       <c r="B4">
         <v>50</v>
       </c>
+      <c r="C4">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1512,6 +1587,9 @@
       <c r="B5">
         <v>50</v>
       </c>
+      <c r="C5">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1520,6 +1598,9 @@
       <c r="B6">
         <v>50</v>
       </c>
+      <c r="C6">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1529,7 +1610,7 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,6 +1620,9 @@
       <c r="B8">
         <v>100</v>
       </c>
+      <c r="C8">
+        <v>20.100000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1547,6 +1631,9 @@
       <c r="B9">
         <v>100</v>
       </c>
+      <c r="C9">
+        <v>20.2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1555,6 +1642,9 @@
       <c r="B10">
         <v>100</v>
       </c>
+      <c r="C10">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1563,6 +1653,9 @@
       <c r="B11">
         <v>100</v>
       </c>
+      <c r="C11">
+        <v>20.399999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1572,7 +1665,7 @@
         <v>150</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,6 +1675,9 @@
       <c r="B13">
         <v>150</v>
       </c>
+      <c r="C13">
+        <v>30.1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1590,6 +1686,9 @@
       <c r="B14">
         <v>150</v>
       </c>
+      <c r="C14">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1598,6 +1697,9 @@
       <c r="B15">
         <v>150</v>
       </c>
+      <c r="C15">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1606,6 +1708,9 @@
       <c r="B16">
         <v>150</v>
       </c>
+      <c r="C16">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1615,7 +1720,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,6 +1730,9 @@
       <c r="B18">
         <v>200</v>
       </c>
+      <c r="C18">
+        <v>40.200000000000003</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1633,6 +1741,9 @@
       <c r="B19">
         <v>200</v>
       </c>
+      <c r="C19">
+        <v>40.4</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1641,6 +1752,9 @@
       <c r="B20">
         <v>200</v>
       </c>
+      <c r="C20">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1649,6 +1763,9 @@
       <c r="B21">
         <v>200</v>
       </c>
+      <c r="C21">
+        <v>40.799999999999997</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1658,7 +1775,7 @@
         <v>250</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,6 +1785,9 @@
       <c r="B23">
         <v>250</v>
       </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1676,6 +1796,9 @@
       <c r="B24">
         <v>250</v>
       </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1684,6 +1807,9 @@
       <c r="B25">
         <v>250</v>
       </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1692,6 +1818,9 @@
       <c r="B26">
         <v>250</v>
       </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1701,7 +1830,7 @@
         <v>255</v>
       </c>
       <c r="C27">
-        <v>5.0999999999999996</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,6 +1840,9 @@
       <c r="B28">
         <v>255</v>
       </c>
+      <c r="C28">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1719,6 +1851,9 @@
       <c r="B29">
         <v>255</v>
       </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1727,6 +1862,9 @@
       <c r="B30">
         <v>255</v>
       </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1734,6 +1872,9 @@
       </c>
       <c r="B31">
         <v>255</v>
+      </c>
+      <c r="C31">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
